--- a/documentation/вопросы.xlsx
+++ b/documentation/вопросы.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Адрес</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Варианты моделей кормушек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Попробовать объединить в одну форму все добавления кормушек</t>
   </si>
   <si>
     <t xml:space="preserve">http://rgbfish.ru/trough/add/</t>
@@ -84,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -95,24 +98,58 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -132,79 +169,70 @@
       <charset val="204"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -214,38 +242,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
+        <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -273,7 +271,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -297,59 +295,56 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -358,31 +353,38 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading" xfId="20"/>
-    <cellStyle name="Heading 1" xfId="21"/>
-    <cellStyle name="Heading 2" xfId="22"/>
-    <cellStyle name="Text" xfId="23"/>
-    <cellStyle name="Note" xfId="24"/>
-    <cellStyle name="Footnote" xfId="25"/>
-    <cellStyle name="Hyperlink" xfId="26"/>
-    <cellStyle name="Status" xfId="27"/>
-    <cellStyle name="Good" xfId="28"/>
-    <cellStyle name="Neutral" xfId="29"/>
-    <cellStyle name="Bad" xfId="30"/>
-    <cellStyle name="Warning" xfId="31"/>
-    <cellStyle name="Error" xfId="32"/>
-    <cellStyle name="Accent" xfId="33"/>
-    <cellStyle name="Accent 1" xfId="34"/>
-    <cellStyle name="Accent 2" xfId="35"/>
-    <cellStyle name="Accent 3" xfId="36"/>
+    <cellStyle name="Accent 1 14" xfId="20"/>
+    <cellStyle name="Accent 13" xfId="21"/>
+    <cellStyle name="Accent 2 15" xfId="22"/>
+    <cellStyle name="Accent 3 16" xfId="23"/>
+    <cellStyle name="Bad 10" xfId="24"/>
+    <cellStyle name="Error 12" xfId="25"/>
+    <cellStyle name="Footnote 5" xfId="26"/>
+    <cellStyle name="Good 8" xfId="27"/>
+    <cellStyle name="Heading 1 1" xfId="28"/>
+    <cellStyle name="Heading 2 2" xfId="29"/>
+    <cellStyle name="Hyperlink 6" xfId="30"/>
+    <cellStyle name="Neutral 9" xfId="31"/>
+    <cellStyle name="Note 4" xfId="32"/>
+    <cellStyle name="Status 7" xfId="33"/>
+    <cellStyle name="Text 3" xfId="34"/>
+    <cellStyle name="Warning 11" xfId="35"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -428,7 +430,7 @@
       <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -455,15 +457,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C9"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,61 +483,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
